--- a/Final_Data/cluster_data.xlsx
+++ b/Final_Data/cluster_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>cluster</t>
   </si>
@@ -25,6 +25,132 @@
     <t>SMILES</t>
   </si>
   <si>
+    <t>CC(COc1ccccc1)OCCCO</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)O</t>
+  </si>
+  <si>
+    <t>Cc1cccc(C)c1O</t>
+  </si>
+  <si>
+    <t>Cc1ccc2c(C)cccc2c1</t>
+  </si>
+  <si>
+    <t>CC(C)CCOC(=O)/C=C/c1ccccc1</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)O)cc1</t>
+  </si>
+  <si>
+    <t>OCC1OC(Oc2ccc(O)cc2)C(O)C(O)C1O</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1O</t>
+  </si>
+  <si>
+    <t>CC(C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(C)(C)O)cc1</t>
+  </si>
+  <si>
+    <t>Cc1ccc2ccccc2c1C</t>
+  </si>
+  <si>
+    <t>O=C(O)c1ccc(O)cc1O</t>
+  </si>
+  <si>
+    <t>O=c1cc(-c2ccccc2)oc2ccc3ccccc3c12</t>
+  </si>
+  <si>
+    <t>COc1cc(C2Oc3cc(C4Oc5cc(O)cc(O)c5C(=O)C4O)ccc3OC2CO)ccc1O</t>
+  </si>
+  <si>
+    <t>O=C(Cc1ccccc1)OCc1ccccc1</t>
+  </si>
+  <si>
+    <t>COCCOC(=O)c1ccccc1C(=O)OCCOC</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cc(C)oc1C</t>
+  </si>
+  <si>
+    <t>Cc1cc(C)cc(O)c1</t>
+  </si>
+  <si>
+    <t>Cc1ccc(O)c(O)c1</t>
+  </si>
+  <si>
+    <t>O=Cc1ccccc1C=O</t>
+  </si>
+  <si>
+    <t>CCCOC(=O)c1ccc(O)cc1</t>
+  </si>
+  <si>
+    <t>Oc1ccc(/C=C/c2cc(O)cc(O)c2)cc1</t>
+  </si>
+  <si>
+    <t>O=c1c(-c2ccc(O)cc2)coc2cc(O)cc(O)c12</t>
+  </si>
+  <si>
+    <t>CC(CCC(=O)O)(c1ccc(O)cc1)c1ccc(O)cc1</t>
+  </si>
+  <si>
+    <t>OCCOc1ccccc1</t>
+  </si>
+  <si>
+    <t>Cc1cccc(C(=O)O)c1</t>
+  </si>
+  <si>
+    <t>CCCCOC(=O)c1ccc(O)cc1</t>
+  </si>
+  <si>
+    <t>Cc1ccc(O)cc1C</t>
+  </si>
+  <si>
+    <t>Cc1cccc2ccccc12</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C)c(O)c1</t>
+  </si>
+  <si>
+    <t>Cc1ccc(O)c(C)c1</t>
+  </si>
+  <si>
+    <t>CC(C)OC(=O)Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>C=CCc1cc(OC)c2c(c1)OCO2</t>
+  </si>
+  <si>
+    <t>O=C(O)/C=C/c1ccc(/C=C/C(=O)O)cc1</t>
+  </si>
+  <si>
+    <t>CC(O)COc1ccccc1</t>
+  </si>
+  <si>
+    <t>CCCCCCOC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>Cc1c(O)cccc1O</t>
+  </si>
+  <si>
+    <t>Cc1ccc2ccccc2c1</t>
+  </si>
+  <si>
+    <t>CC(=O)OC(C(=O)c1ccccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C=Cc1cccc(C)c1</t>
+  </si>
+  <si>
+    <t>Cc1ccc2cc3c(ccc4ccccc43)c3c2c1CC3</t>
+  </si>
+  <si>
+    <t>Cc1ccc2oc(=O)ccc2c1</t>
+  </si>
+  <si>
     <t>Oc1cccc2c1ccc1c3c4c(cccc4cc12)C=C3</t>
   </si>
   <si>
@@ -697,9 +823,6 @@
     <t>C1=Cc2c3ccccc3cc3cccc1c23</t>
   </si>
   <si>
-    <t>C(=C/c1ccccc1)\c1ccccc1</t>
-  </si>
-  <si>
     <t>O=c1ccc2cc3ccoc3cc2o1</t>
   </si>
   <si>
@@ -1541,9 +1664,6 @@
   </si>
   <si>
     <t>Cc1cc2c(c3ccc4c(c13)C=C[C@@H](O)[C@@H]4O)CCC2</t>
-  </si>
-  <si>
-    <t>COCC(=Cc1ccccc1)OC</t>
   </si>
   <si>
     <t>COc1ccc2cc(C(C)=O)ccc2c1</t>
@@ -2051,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2073,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2087,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2118,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2129,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2157,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2171,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2185,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2202,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2227,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2255,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2300,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2311,7 +2431,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2325,10 +2445,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2342,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2353,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2384,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2395,10 +2515,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2423,10 +2543,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -2479,7 +2599,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2496,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -2507,10 +2627,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2535,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2549,10 +2669,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -2577,7 +2697,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2591,7 +2711,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2633,10 +2753,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -2647,7 +2767,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2661,10 +2781,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -2678,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -2689,7 +2809,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2706,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -2717,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2731,7 +2851,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2748,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
@@ -2759,7 +2879,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2787,7 +2907,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2815,7 +2935,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2832,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -2846,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>58</v>
@@ -2871,10 +2991,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -2885,7 +3005,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2916,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>63</v>
@@ -2944,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>65</v>
@@ -2955,10 +3075,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>66</v>
@@ -2997,10 +3117,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>69</v>
@@ -3014,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3039,7 +3159,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3081,10 +3201,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>75</v>
@@ -3095,10 +3215,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>76</v>
@@ -3109,10 +3229,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>77</v>
@@ -3140,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>79</v>
@@ -3151,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3165,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3193,7 +3313,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3210,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>84</v>
@@ -3224,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>85</v>
@@ -3235,7 +3355,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3252,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
@@ -3266,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3277,7 +3397,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3291,7 +3411,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3319,7 +3439,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3336,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
@@ -3347,7 +3467,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3361,7 +3481,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3375,10 +3495,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
@@ -3389,7 +3509,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3403,7 +3523,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3417,10 +3537,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
@@ -3431,10 +3551,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
         <v>100</v>
@@ -3445,7 +3565,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3487,7 +3607,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3501,7 +3621,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3515,7 +3635,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3532,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
         <v>107</v>
@@ -3546,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
         <v>108</v>
@@ -3571,10 +3691,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>110</v>
@@ -3585,10 +3705,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
@@ -3641,7 +3761,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3672,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
         <v>117</v>
@@ -3683,7 +3803,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3700,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
         <v>119</v>
@@ -3711,7 +3831,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3742,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>122</v>
@@ -3753,7 +3873,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3767,10 +3887,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>124</v>
@@ -3781,7 +3901,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3795,10 +3915,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
         <v>126</v>
@@ -3812,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
         <v>127</v>
@@ -3840,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="s">
         <v>129</v>
@@ -3851,7 +3971,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3879,7 +3999,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3893,10 +4013,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -3907,7 +4027,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3924,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="s">
         <v>135</v>
@@ -3935,7 +4055,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3963,7 +4083,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3977,7 +4097,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3991,7 +4111,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4019,7 +4139,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4033,7 +4153,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4047,10 +4167,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
         <v>144</v>
@@ -4061,7 +4181,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4089,7 +4209,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4103,7 +4223,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4145,7 +4265,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4215,7 +4335,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4229,7 +4349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4243,7 +4363,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4271,7 +4391,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4299,7 +4419,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4316,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="s">
         <v>163</v>
@@ -4327,10 +4447,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
         <v>164</v>
@@ -4341,7 +4461,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4355,7 +4475,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4369,7 +4489,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4397,7 +4517,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4411,7 +4531,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4425,10 +4545,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
         <v>171</v>
@@ -4439,10 +4559,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="s">
         <v>172</v>
@@ -4467,7 +4587,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4484,7 +4604,7 @@
         <v>2</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
         <v>175</v>
@@ -4509,7 +4629,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4551,10 +4671,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="s">
         <v>180</v>
@@ -4635,7 +4755,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4649,7 +4769,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4691,7 +4811,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4705,7 +4825,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4733,7 +4853,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4761,7 +4881,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4775,7 +4895,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4803,7 +4923,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4817,7 +4937,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -4831,7 +4951,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -4845,7 +4965,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -4873,7 +4993,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4929,7 +5049,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4943,10 +5063,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="s">
         <v>208</v>
@@ -4957,10 +5077,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="s">
         <v>209</v>
@@ -4971,10 +5091,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="s">
         <v>210</v>
@@ -4999,7 +5119,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -5027,10 +5147,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="s">
         <v>214</v>
@@ -5041,7 +5161,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -5055,7 +5175,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -5083,7 +5203,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5125,7 +5245,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5142,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
         <v>222</v>
@@ -5156,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="s">
         <v>223</v>
@@ -5167,7 +5287,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -5198,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="s">
         <v>226</v>
@@ -5209,7 +5329,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -5223,10 +5343,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" t="s">
         <v>228</v>
@@ -5237,7 +5357,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -5251,7 +5371,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -5265,7 +5385,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -5279,7 +5399,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5293,7 +5413,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -5321,7 +5441,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -5338,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="s">
         <v>236</v>
@@ -5377,10 +5497,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="s">
         <v>239</v>
@@ -5419,10 +5539,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="s">
         <v>242</v>
@@ -5447,7 +5567,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -5461,7 +5581,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -5475,7 +5595,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -5492,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="s">
         <v>247</v>
@@ -5503,7 +5623,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -5548,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
         <v>251</v>
@@ -5562,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
         <v>252</v>
@@ -5573,7 +5693,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -5587,7 +5707,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -5601,7 +5721,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -5615,7 +5735,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -5632,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256" t="s">
         <v>257</v>
@@ -5643,7 +5763,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -5657,7 +5777,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -5671,7 +5791,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -5688,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
         <v>261</v>
@@ -5699,7 +5819,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -5744,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
         <v>265</v>
@@ -5755,7 +5875,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -5769,10 +5889,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="s">
         <v>267</v>
@@ -5783,10 +5903,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
         <v>268</v>
@@ -5797,7 +5917,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -5842,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271" t="s">
         <v>272</v>
@@ -5853,7 +5973,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -5867,7 +5987,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -5881,7 +6001,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -5895,10 +6015,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="s">
         <v>276</v>
@@ -5909,7 +6029,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -5923,7 +6043,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -5940,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="s">
         <v>279</v>
@@ -5954,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="s">
         <v>280</v>
@@ -5965,10 +6085,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="s">
         <v>281</v>
@@ -5996,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" t="s">
         <v>283</v>
@@ -6007,7 +6127,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -6024,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284" t="s">
         <v>285</v>
@@ -6038,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" t="s">
         <v>286</v>
@@ -6052,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286" t="s">
         <v>287</v>
@@ -6063,10 +6183,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" t="s">
         <v>288</v>
@@ -6077,7 +6197,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -6091,7 +6211,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -6105,7 +6225,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -6150,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" t="s">
         <v>294</v>
@@ -6161,7 +6281,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -6175,7 +6295,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -6189,7 +6309,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -6206,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" t="s">
         <v>298</v>
@@ -6231,7 +6351,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -6248,7 +6368,7 @@
         <v>2</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="s">
         <v>301</v>
@@ -6262,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="s">
         <v>302</v>
@@ -6273,7 +6393,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -6346,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307" t="s">
         <v>308</v>
@@ -6357,7 +6477,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -6385,7 +6505,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -6399,7 +6519,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -6430,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" t="s">
         <v>314</v>
@@ -6441,7 +6561,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -6455,7 +6575,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -6472,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D316" t="s">
         <v>317</v>
@@ -6483,7 +6603,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -6497,10 +6617,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="s">
         <v>319</v>
@@ -6511,10 +6631,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319" t="s">
         <v>320</v>
@@ -6528,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" t="s">
         <v>321</v>
@@ -6539,10 +6659,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D321" t="s">
         <v>322</v>
@@ -6553,10 +6673,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="s">
         <v>323</v>
@@ -6581,7 +6701,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -6595,10 +6715,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D325" t="s">
         <v>326</v>
@@ -6609,10 +6729,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326" t="s">
         <v>327</v>
@@ -6623,10 +6743,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D327" t="s">
         <v>328</v>
@@ -6637,10 +6757,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="s">
         <v>329</v>
@@ -6651,7 +6771,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -6693,7 +6813,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -6707,10 +6827,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" t="s">
         <v>334</v>
@@ -6721,7 +6841,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -6735,7 +6855,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -6763,10 +6883,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="s">
         <v>338</v>
@@ -6777,10 +6897,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338" t="s">
         <v>339</v>
@@ -6805,10 +6925,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340" t="s">
         <v>341</v>
@@ -6847,7 +6967,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -6861,7 +6981,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -6875,7 +6995,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -6892,7 +7012,7 @@
         <v>2</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D346" t="s">
         <v>347</v>
@@ -6920,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D348" t="s">
         <v>349</v>
@@ -6931,7 +7051,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -6945,7 +7065,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -6959,7 +7079,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -6973,7 +7093,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -6987,10 +7107,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D353" t="s">
         <v>354</v>
@@ -7001,10 +7121,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354" t="s">
         <v>355</v>
@@ -7029,7 +7149,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -7043,7 +7163,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -7060,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358" t="s">
         <v>359</v>
@@ -7071,10 +7191,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="s">
         <v>360</v>
@@ -7088,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="s">
         <v>361</v>
@@ -7099,7 +7219,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -7130,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D363" t="s">
         <v>364</v>
@@ -7144,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" t="s">
         <v>365</v>
@@ -7169,10 +7289,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="s">
         <v>367</v>
@@ -7239,7 +7359,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -7256,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D372" t="s">
         <v>373</v>
@@ -7267,7 +7387,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -7284,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" t="s">
         <v>375</v>
@@ -7295,7 +7415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -7312,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" t="s">
         <v>377</v>
@@ -7340,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D378" t="s">
         <v>379</v>
@@ -7351,10 +7471,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D379" t="s">
         <v>380</v>
@@ -7379,10 +7499,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D381" t="s">
         <v>382</v>
@@ -7393,10 +7513,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D382" t="s">
         <v>383</v>
@@ -7407,10 +7527,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" t="s">
         <v>384</v>
@@ -7424,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" t="s">
         <v>385</v>
@@ -7435,7 +7555,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -7466,7 +7586,7 @@
         <v>2</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D387" t="s">
         <v>388</v>
@@ -7477,7 +7597,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -7494,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" t="s">
         <v>390</v>
@@ -7505,10 +7625,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D390" t="s">
         <v>391</v>
@@ -7519,10 +7639,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D391" t="s">
         <v>392</v>
@@ -7550,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" t="s">
         <v>394</v>
@@ -7561,7 +7681,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -7575,10 +7695,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="s">
         <v>396</v>
@@ -7589,7 +7709,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -7617,7 +7737,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -7645,7 +7765,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -7662,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="C401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D401" t="s">
         <v>402</v>
@@ -7673,10 +7793,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402" t="s">
         <v>403</v>
@@ -7704,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" t="s">
         <v>405</v>
@@ -7715,10 +7835,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D405" t="s">
         <v>406</v>
@@ -7746,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D407" t="s">
         <v>408</v>
@@ -7757,10 +7877,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408" t="s">
         <v>409</v>
@@ -7771,10 +7891,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="s">
         <v>410</v>
@@ -7799,7 +7919,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -7813,10 +7933,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412" t="s">
         <v>413</v>
@@ -7841,7 +7961,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -7872,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416" t="s">
         <v>417</v>
@@ -7883,7 +8003,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -7900,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D418" t="s">
         <v>419</v>
@@ -7914,7 +8034,7 @@
         <v>2</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" t="s">
         <v>420</v>
@@ -7925,7 +8045,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -7970,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423" t="s">
         <v>424</v>
@@ -7998,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425" t="s">
         <v>426</v>
@@ -8009,7 +8129,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -8023,10 +8143,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D427" t="s">
         <v>428</v>
@@ -8051,10 +8171,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429" t="s">
         <v>430</v>
@@ -8079,10 +8199,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D431" t="s">
         <v>432</v>
@@ -8093,7 +8213,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -8110,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433" t="s">
         <v>434</v>
@@ -8135,10 +8255,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435" t="s">
         <v>436</v>
@@ -8149,10 +8269,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436" t="s">
         <v>437</v>
@@ -8191,7 +8311,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -8208,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D440" t="s">
         <v>441</v>
@@ -8219,10 +8339,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441" t="s">
         <v>442</v>
@@ -8236,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" t="s">
         <v>443</v>
@@ -8250,7 +8370,7 @@
         <v>2</v>
       </c>
       <c r="C443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D443" t="s">
         <v>444</v>
@@ -8264,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D444" t="s">
         <v>445</v>
@@ -8275,10 +8395,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D445" t="s">
         <v>446</v>
@@ -8303,7 +8423,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -8334,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449" t="s">
         <v>450</v>
@@ -8362,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D451" t="s">
         <v>452</v>
@@ -8373,7 +8493,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -8404,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454" t="s">
         <v>455</v>
@@ -8418,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D455" t="s">
         <v>456</v>
@@ -8429,7 +8549,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -8443,7 +8563,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -8457,7 +8577,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -8471,10 +8591,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D459" t="s">
         <v>460</v>
@@ -8499,10 +8619,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D461" t="s">
         <v>462</v>
@@ -8516,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462" t="s">
         <v>463</v>
@@ -8527,10 +8647,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D463" t="s">
         <v>464</v>
@@ -8541,7 +8661,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -8555,10 +8675,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D465" t="s">
         <v>466</v>
@@ -8600,7 +8720,7 @@
         <v>2</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468" t="s">
         <v>469</v>
@@ -8614,7 +8734,7 @@
         <v>2</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469" t="s">
         <v>470</v>
@@ -8625,7 +8745,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -8639,7 +8759,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -8653,7 +8773,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -8667,7 +8787,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -8681,10 +8801,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D474" t="s">
         <v>475</v>
@@ -8695,7 +8815,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -8709,7 +8829,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -8723,7 +8843,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -8754,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479" t="s">
         <v>480</v>
@@ -8779,10 +8899,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D481" t="s">
         <v>482</v>
@@ -8793,10 +8913,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482" t="s">
         <v>483</v>
@@ -8810,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="C483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D483" t="s">
         <v>484</v>
@@ -8821,10 +8941,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D484" t="s">
         <v>485</v>
@@ -8835,7 +8955,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -8849,10 +8969,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D486" t="s">
         <v>487</v>
@@ -8863,7 +8983,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -8877,7 +8997,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -8905,10 +9025,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D490" t="s">
         <v>491</v>
@@ -8936,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D492" t="s">
         <v>493</v>
@@ -8964,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="C494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D494" t="s">
         <v>495</v>
@@ -8989,10 +9109,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D496" t="s">
         <v>497</v>
@@ -9031,10 +9151,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D499" t="s">
         <v>500</v>
@@ -9045,10 +9165,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D500" t="s">
         <v>501</v>
@@ -9059,10 +9179,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D501" t="s">
         <v>502</v>
@@ -9073,10 +9193,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D502" t="s">
         <v>503</v>
@@ -9090,7 +9210,7 @@
         <v>2</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D503" t="s">
         <v>504</v>
@@ -9115,10 +9235,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D505" t="s">
         <v>506</v>
@@ -9129,10 +9249,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D506" t="s">
         <v>507</v>
@@ -9185,10 +9305,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D510" t="s">
         <v>511</v>
@@ -9202,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D511" t="s">
         <v>512</v>
@@ -9213,10 +9333,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D512" t="s">
         <v>513</v>
@@ -9227,10 +9347,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D513" t="s">
         <v>514</v>
@@ -9241,10 +9361,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D514" t="s">
         <v>515</v>
@@ -9255,7 +9375,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -9272,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="C516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D516" t="s">
         <v>517</v>
@@ -9286,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517" t="s">
         <v>518</v>
@@ -9297,7 +9417,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -9311,10 +9431,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D519" t="s">
         <v>520</v>
@@ -9342,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="C521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D521" t="s">
         <v>522</v>
@@ -9395,7 +9515,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -9409,7 +9529,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -9426,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="C527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D527" t="s">
         <v>528</v>
@@ -9437,7 +9557,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -9451,7 +9571,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -9465,7 +9585,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -9479,10 +9599,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D531" t="s">
         <v>532</v>
@@ -9496,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="C532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D532" t="s">
         <v>533</v>
@@ -9521,10 +9641,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534" t="s">
         <v>535</v>
@@ -9535,10 +9655,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D535" t="s">
         <v>536</v>
@@ -9563,7 +9683,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -9577,7 +9697,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -9605,7 +9725,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -9622,7 +9742,7 @@
         <v>2</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D541" t="s">
         <v>542</v>
@@ -9633,7 +9753,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -9689,7 +9809,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -9703,7 +9823,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -9717,10 +9837,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D548" t="s">
         <v>549</v>
@@ -9745,10 +9865,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D550" t="s">
         <v>551</v>
@@ -9773,10 +9893,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552" t="s">
         <v>553</v>
@@ -9787,7 +9907,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -9804,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="C554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554" t="s">
         <v>555</v>
@@ -9829,7 +9949,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -9843,10 +9963,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D557" t="s">
         <v>558</v>
@@ -9857,13 +9977,573 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C558">
         <v>0</v>
       </c>
       <c r="D558" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>2</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>2</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>2</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>2</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>2</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>2</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>2</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>2</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>2</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>2</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>2</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>2</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>2</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>2</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>2</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>2</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>2</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>2</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>2</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
